--- a/Doc/State descrption.xlsx
+++ b/Doc/State descrption.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\SCHwash\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E4DFC3-1624-42AA-8712-64CF273228D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EC3304-49F2-4069-B6EF-F191C4589058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">SCH wash </t>
   </si>
@@ -93,19 +93,10 @@
     <t>PWM</t>
   </si>
   <si>
-    <t>PGC</t>
-  </si>
-  <si>
-    <t>PGD</t>
-  </si>
-  <si>
     <t>Van</t>
   </si>
   <si>
     <t>Relay</t>
-  </si>
-  <si>
-    <t>DS1</t>
   </si>
 </sst>
 </file>
@@ -432,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,12 +435,12 @@
     <col min="3" max="3" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -468,82 +459,73 @@
       <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
